--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,27 +661,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 20688-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 20688-2022.xlsx", "A 20688-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 20688-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 20688-2022.png", "A 20688-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 20688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 20688-2022.docx", "A 20688-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 20688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 20688-2022.docx", "A 20688-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 20688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 20688-2022.docx", "A 20688-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 20688-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 20688-2022.docx", "A 20688-2022")</f>
         <v/>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 12027-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 12027-2022.xlsx", "A 12027-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 12027-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 12027-2022.png", "A 12027-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/knärot/A 12027-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/knärot/A 12027-2022.png", "A 12027-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 12027-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 12027-2022.docx", "A 12027-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 12027-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 12027-2022.docx", "A 12027-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 12027-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 12027-2022.docx", "A 12027-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 12027-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 12027-2022.docx", "A 12027-2022")</f>
         <v/>
       </c>
     </row>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,27 +847,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 72292-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 72292-2018.xlsx", "A 72292-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 72292-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 72292-2018.png", "A 72292-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 72292-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 72292-2018.docx", "A 72292-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 72292-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 72292-2018.docx", "A 72292-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 72292-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 72292-2018.docx", "A 72292-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 72292-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 72292-2018.docx", "A 72292-2018")</f>
         <v/>
       </c>
     </row>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,27 +936,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 31007-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 31007-2020.xlsx", "A 31007-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 31007-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 31007-2020.png", "A 31007-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 31007-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 31007-2020.docx", "A 31007-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 31007-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 31007-2020.docx", "A 31007-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 31007-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 31007-2020.docx", "A 31007-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 31007-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 31007-2020.docx", "A 31007-2020")</f>
         <v/>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,27 +1025,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 4921-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 4921-2021.xlsx", "A 4921-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 4921-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 4921-2021.png", "A 4921-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 4921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 4921-2021.docx", "A 4921-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 4921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 4921-2021.docx", "A 4921-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 4921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 4921-2021.docx", "A 4921-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 4921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 4921-2021.docx", "A 4921-2021")</f>
         <v/>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1114,27 +1114,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 13848-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 13848-2021.xlsx", "A 13848-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 13848-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 13848-2021.png", "A 13848-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 13848-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 13848-2021.docx", "A 13848-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 13848-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 13848-2021.docx", "A 13848-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 13848-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 13848-2021.docx", "A 13848-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 13848-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 13848-2021.docx", "A 13848-2021")</f>
         <v/>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,27 +1208,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 35998-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 35998-2021.xlsx", "A 35998-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 35998-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 35998-2021.png", "A 35998-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 35998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 35998-2021.docx", "A 35998-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 35998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 35998-2021.docx", "A 35998-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 35998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 35998-2021.docx", "A 35998-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 35998-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 35998-2021.docx", "A 35998-2021")</f>
         <v/>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,27 +1302,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 72685-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 72685-2021.xlsx", "A 72685-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 72685-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 72685-2021.png", "A 72685-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 72685-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 72685-2021.docx", "A 72685-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 72685-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 72685-2021.docx", "A 72685-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 72685-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 72685-2021.docx", "A 72685-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 72685-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 72685-2021.docx", "A 72685-2021")</f>
         <v/>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,27 +1390,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 28474-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 28474-2019.xlsx", "A 28474-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 28474-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 28474-2019.png", "A 28474-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 28474-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 28474-2019.docx", "A 28474-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 28474-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 28474-2019.docx", "A 28474-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 28474-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 28474-2019.docx", "A 28474-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 28474-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 28474-2019.docx", "A 28474-2019")</f>
         <v/>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,31 +1483,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 5481-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 5481-2022.xlsx", "A 5481-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 5481-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 5481-2022.png", "A 5481-2022")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/knärot/A 5481-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/knärot/A 5481-2022.png", "A 5481-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 5481-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 5481-2022.docx", "A 5481-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 5481-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 5481-2022.docx", "A 5481-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 5481-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 5481-2022.docx", "A 5481-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 5481-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 5481-2022.docx", "A 5481-2022")</f>
         <v/>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,27 +1574,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 60176-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 60176-2021.xlsx", "A 60176-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 60176-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 60176-2021.png", "A 60176-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 60176-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 60176-2021.docx", "A 60176-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 60176-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 60176-2021.docx", "A 60176-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 60176-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 60176-2021.docx", "A 60176-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 60176-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 60176-2021.docx", "A 60176-2021")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1666,27 +1666,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 36627-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 36627-2022.xlsx", "A 36627-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 36627-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 36627-2022.png", "A 36627-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 36627-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 36627-2022.docx", "A 36627-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 36627-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 36627-2022.docx", "A 36627-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 36627-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 36627-2022.docx", "A 36627-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 36627-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 36627-2022.docx", "A 36627-2022")</f>
         <v/>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1752,27 +1752,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 28477-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 28477-2019.xlsx", "A 28477-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 28477-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 28477-2019.png", "A 28477-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 28477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 28477-2019.docx", "A 28477-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 28477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 28477-2019.docx", "A 28477-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 28477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 28477-2019.docx", "A 28477-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 28477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 28477-2019.docx", "A 28477-2019")</f>
         <v/>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1843,27 +1843,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 11099-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 11099-2020.xlsx", "A 11099-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 11099-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 11099-2020.png", "A 11099-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 11099-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 11099-2020.docx", "A 11099-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 11099-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 11099-2020.docx", "A 11099-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 11099-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 11099-2020.docx", "A 11099-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 11099-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 11099-2020.docx", "A 11099-2020")</f>
         <v/>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1929,27 +1929,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 19775-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 19775-2020.xlsx", "A 19775-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 19775-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 19775-2020.png", "A 19775-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 19775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 19775-2020.docx", "A 19775-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 19775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 19775-2020.docx", "A 19775-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 19775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 19775-2020.docx", "A 19775-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 19775-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 19775-2020.docx", "A 19775-2020")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2015,27 +2015,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 23402-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 23402-2021.xlsx", "A 23402-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 23402-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 23402-2021.png", "A 23402-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 23402-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 23402-2021.docx", "A 23402-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 23402-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 23402-2021.docx", "A 23402-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 23402-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 23402-2021.docx", "A 23402-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 23402-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 23402-2021.docx", "A 23402-2021")</f>
         <v/>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2101,27 +2101,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 47429-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 47429-2021.xlsx", "A 47429-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 47429-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 47429-2021.png", "A 47429-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 47429-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 47429-2021.docx", "A 47429-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 47429-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 47429-2021.docx", "A 47429-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 47429-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 47429-2021.docx", "A 47429-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 47429-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 47429-2021.docx", "A 47429-2021")</f>
         <v/>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2187,27 +2187,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 64023-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 64023-2021.xlsx", "A 64023-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 64023-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 64023-2021.png", "A 64023-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 64023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 64023-2021.docx", "A 64023-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 64023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 64023-2021.docx", "A 64023-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 64023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 64023-2021.docx", "A 64023-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 64023-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 64023-2021.docx", "A 64023-2021")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2273,27 +2273,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 2579-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 2579-2023.xlsx", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 2579-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 2579-2023.png", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 2579-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 2579-2023.docx", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 2579-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 2579-2023.docx", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 2579-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 2579-2023.docx", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 2579-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 2579-2023.docx", "A 2579-2023")</f>
         <v/>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2364,27 +2364,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 3410-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 3410-2023.xlsx", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 3410-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 3410-2023.png", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 3410-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 3410-2023.docx", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 3410-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 3410-2023.docx", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 3410-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 3410-2023.docx", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 3410-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 3410-2023.docx", "A 3410-2023")</f>
         <v/>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2449,27 +2449,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 60849-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 60849-2018.xlsx", "A 60849-2018")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 60849-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 60849-2018.png", "A 60849-2018")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 60849-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 60849-2018.docx", "A 60849-2018")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 60849-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 60849-2018.docx", "A 60849-2018")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 60849-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 60849-2018.docx", "A 60849-2018")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 60849-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 60849-2018.docx", "A 60849-2018")</f>
         <v/>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2534,27 +2534,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 59630-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 59630-2018.xlsx", "A 59630-2018")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 59630-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 59630-2018.png", "A 59630-2018")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 59630-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 59630-2018.docx", "A 59630-2018")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 59630-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 59630-2018.docx", "A 59630-2018")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 59630-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 59630-2018.docx", "A 59630-2018")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 59630-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 59630-2018.docx", "A 59630-2018")</f>
         <v/>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2624,27 +2624,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 60099-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 60099-2019.xlsx", "A 60099-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 60099-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 60099-2019.png", "A 60099-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 60099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 60099-2019.docx", "A 60099-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 60099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 60099-2019.docx", "A 60099-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 60099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 60099-2019.docx", "A 60099-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 60099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 60099-2019.docx", "A 60099-2019")</f>
         <v/>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2709,27 +2709,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 37216-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 37216-2020.xlsx", "A 37216-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 37216-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 37216-2020.png", "A 37216-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 37216-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 37216-2020.docx", "A 37216-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 37216-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 37216-2020.docx", "A 37216-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 37216-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 37216-2020.docx", "A 37216-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 37216-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 37216-2020.docx", "A 37216-2020")</f>
         <v/>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2794,27 +2794,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 6484-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 6484-2021.xlsx", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 6484-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 6484-2021.png", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 6484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 6484-2021.docx", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 6484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 6484-2021.docx", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 6484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 6484-2021.docx", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 6484-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 6484-2021.docx", "A 6484-2021")</f>
         <v/>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2879,27 +2879,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 60172-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 60172-2021.xlsx", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 60172-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 60172-2021.png", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 60172-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 60172-2021.docx", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 60172-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 60172-2021.docx", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 60172-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 60172-2021.docx", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 60172-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 60172-2021.docx", "A 60172-2021")</f>
         <v/>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2964,27 +2964,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 14487-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 14487-2022.xlsx", "A 14487-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 14487-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 14487-2022.png", "A 14487-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 14487-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 14487-2022.docx", "A 14487-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 14487-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 14487-2022.docx", "A 14487-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 14487-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 14487-2022.docx", "A 14487-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 14487-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 14487-2022.docx", "A 14487-2022")</f>
         <v/>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3049,27 +3049,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 39092-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 39092-2022.xlsx", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 39092-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 39092-2022.png", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 39092-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 39092-2022.docx", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 39092-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 39092-2022.docx", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 39092-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 39092-2022.docx", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 39092-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 39092-2022.docx", "A 39092-2022")</f>
         <v/>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3134,27 +3134,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 43859-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 43859-2022.xlsx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 43859-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 43859-2022.png", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 43859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 43859-2022.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 43859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 43859-2022.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 43859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 43859-2022.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 43859-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 43859-2022.docx", "A 43859-2022")</f>
         <v/>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3224,27 +3224,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 100-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 100-2023.xlsx", "A 100-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 100-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 100-2023.png", "A 100-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 100-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 100-2023.docx", "A 100-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 100-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 100-2023.docx", "A 100-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 100-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 100-2023.docx", "A 100-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 100-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 100-2023.docx", "A 100-2023")</f>
         <v/>
       </c>
     </row>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3314,27 +3314,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 10610-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 10610-2023.xlsx", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 10610-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 10610-2023.png", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 10610-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 10610-2023.docx", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 10610-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 10610-2023.docx", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 10610-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 10610-2023.docx", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 10610-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 10610-2023.docx", "A 10610-2023")</f>
         <v/>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3399,27 +3399,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 20753-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/artfynd/A 20753-2023.xlsx", "A 20753-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 20753-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/kartor/A 20753-2023.png", "A 20753-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 20753-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomål/A 20753-2023.docx", "A 20753-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 20753-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/klagomålsmail/A 20753-2023.docx", "A 20753-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 20753-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsyn/A 20753-2023.docx", "A 20753-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 20753-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SKOVDE/tillsynsmail/A 20753-2023.docx", "A 20753-2023")</f>
         <v/>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -572,7 +572,7 @@
         <v>44700</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>44635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>43455</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44011</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44226</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>44277</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>44385</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>44546</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>43626</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44595</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>44495</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>43626</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>43889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>43942</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44333</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>44447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>44508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44943</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44949</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>43410</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>43419</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>43777</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>44054</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>44235</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>44652</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         <v>44817</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44928</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44988</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>45058</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43398</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43402</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43402</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43415</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43425</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43430</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43438</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43438</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>43445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43452</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43453</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43454</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43466</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>43469</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>43475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>43476</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>43479</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>43479</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>43486</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>43486</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>43488</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43488</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43488</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>43495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>43497</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>43517</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43522</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>43522</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>43524</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>43529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         <v>43531</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43532</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43539</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43544</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43546</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43546</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43572</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43596</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43620</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43643</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43655</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43686</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43690</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43705</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43710</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43740</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43743</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43747</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43747</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43756</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43763</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43772</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43772</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43773</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43774</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43777</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43777</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43791</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43794</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43795</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43804</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43805</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43808</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43837</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43837</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43837</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>43851</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>43864</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43865</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43866</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43867</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43885</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43900</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43909</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43921</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43928</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43938</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43962</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43970</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43986</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43992</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>44018</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>44021</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>44021</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>44021</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>44035</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9907,7 +9907,7 @@
         <v>44036</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>44036</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44040</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>44041</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>44049</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>44050</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>44051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>44053</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44053</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>44055</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>44057</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>44057</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44067</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44069</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44075</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44082</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44088</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44099</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44112</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44126</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         <v>44131</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>44137</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         <v>44152</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>44152</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>44169</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         <v>44181</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         <v>44187</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>44188</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>44201</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>44201</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>44203</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>44221</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44224</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44235</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44299</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44305</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44306</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>44363</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>44365</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>44385</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>44386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12435,7 +12435,7 @@
         <v>44391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>44413</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44417</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>44418</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>44421</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>44421</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>44425</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>44430</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44439</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>44445</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>44475</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44495</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>44496</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>44516</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44543</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>44567</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44582</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44585</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>44586</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>44587</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
         <v>44594</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>44601</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44614</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44614</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44616</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44616</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44740</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44796</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44804</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44809</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44811</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44820</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44823</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44834</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44840</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44847</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>44862</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44900</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44903</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>44917</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44924</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44930</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>44943</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>44999</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>45002</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45006</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45007</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45013</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45019</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45019</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45019</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45036</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45040</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45070</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45082</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45086</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45104</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45121</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45128</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16381,7 +16381,7 @@
         <v>45142</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45161</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>45169</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
